--- a/empManager/doc/入力時エラーチェック.xlsx
+++ b/empManager/doc/入力時エラーチェック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LaLa-servlet-jsp-2024-06\chap13\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\LaLa-servlet-jsp-2024-12\empManager\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A4E3F-A19D-4543-ABC0-4ABBD79EE3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53043470-51B5-4086-B1E5-B62D743D3040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="630" windowWidth="12555" windowHeight="10320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>空白のあとに数字を入力</t>
     <rPh sb="0" eb="2">
       <t>クウハク</t>
@@ -319,6 +315,10 @@
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -783,7 +783,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="12.75">
@@ -844,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="12.75">
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="12.75">
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -883,13 +883,13 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="12.75">
@@ -903,6 +903,9 @@
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="5">
@@ -917,6 +920,9 @@
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="5">
@@ -930,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -939,10 +945,13 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -956,6 +965,9 @@
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="5">
@@ -970,6 +982,9 @@
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F15" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="11">
@@ -977,10 +992,13 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -995,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="12.75">
@@ -1008,6 +1026,9 @@
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:6">
